--- a/max_margem_contrib/escolhas_diarias.xlsx
+++ b/max_margem_contrib/escolhas_diarias.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>693</v>
+        <v>692.78</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>663.6</v>
+        <v>663.46014</v>
       </c>
     </row>
     <row r="4">
@@ -482,11 +482,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Lasanha', 'Lasanha']</t>
+          <t>['Panqueca', 'Panqueca']</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>653.4</v>
+        <v>582.6</v>
       </c>
     </row>
     <row r="5">
@@ -495,11 +495,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Estrogonofe', 'Estrogonofe']</t>
+          <t>['Empadão', 'Estrogonofe']</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>606.24</v>
+        <v>304.41</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +508,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Empadão']</t>
+          <t>['Bolinho', 'Bolinho', 'Empadão']</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>393.73</v>
+        <v>284.33</v>
       </c>
     </row>
     <row r="7">
@@ -521,11 +521,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Empadão']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>306.31</v>
+        <v>242.32</v>
       </c>
     </row>
     <row r="8">
@@ -534,11 +534,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>273</v>
+        <v>227.04</v>
       </c>
     </row>
     <row r="9">
@@ -547,11 +547,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['Empadão', 'Empadão']</t>
+          <t>['Lasanha']</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>181.92</v>
+        <v>217.8</v>
       </c>
     </row>
     <row r="10">
@@ -560,11 +560,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Pão de queijo (12 unid)']</t>
+          <t>['Esfiha', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>124.8</v>
+        <v>158.81334</v>
       </c>
     </row>
     <row r="11">
@@ -573,11 +573,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Pão de queijo (12 unid)']</t>
+          <t>['Esfiha', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>124.8</v>
+        <v>158.81334</v>
       </c>
     </row>
   </sheetData>
